--- a/reportes/I10.10.2.21.xlsx
+++ b/reportes/I10.10.2.21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>RODRÍGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDRA </t>
-  </si>
-  <si>
-    <t>NOEMI</t>
-  </si>
-  <si>
-    <t>/201769541</t>
+    <t>TZIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDER </t>
+  </si>
+  <si>
+    <t>HUMBERTO</t>
+  </si>
+  <si>
+    <t>/201773393</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,19 +70,16 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t xml:space="preserve">LOTE 2 MANZANA 9 </t>
-  </si>
-  <si>
-    <t>CANT´ON JAGUEY</t>
-  </si>
-  <si>
-    <t>CANALITOS Z. 24</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t>43211463</t>
+    <t>30 AV. C 11-20 Z. 7</t>
+  </si>
+  <si>
+    <t>TIKAL I</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>5501-7610</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -91,12 +88,6 @@
     <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
-    <t>IDEM.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -109,13 +100,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1984-06-02</t>
-  </si>
-  <si>
-    <t>33 AÑOS</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>1963-10-06</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>QUETZALTENANGO</t>
+  </si>
+  <si>
+    <t>Masculino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -133,13 +127,13 @@
     <t>Casado</t>
   </si>
   <si>
-    <t>AMA DE CASA</t>
-  </si>
-  <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
-    <t>DPI 2447590490101</t>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>GUATEMALTECO</t>
+  </si>
+  <si>
+    <t>DPI-1611081720901</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,7 +142,7 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t>MARVIN OLIVA ALBIZURES</t>
+    <t>FLORI MONTENEGRO</t>
   </si>
   <si>
     <t>Nombre del Padre:</t>
@@ -157,10 +151,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>GUADALUPE LUNA SAMAYOA</t>
-  </si>
-  <si>
-    <t>MARTA R. ROSALES</t>
+    <t>ANTONIO TZIC</t>
+  </si>
+  <si>
+    <t>GLORIA RODAS</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -172,13 +166,10 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>MARTA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>MAADRE</t>
-  </si>
-  <si>
-    <t>42377177</t>
+    <t>ESPOSA</t>
+  </si>
+  <si>
+    <t>5519-1399</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -205,13 +196,13 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>10/11/2017</t>
-  </si>
-  <si>
-    <t>12:44:15</t>
-  </si>
-  <si>
-    <t>DENTAL</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>11:50:52</t>
+  </si>
+  <si>
+    <t>CL. DERMA</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1159,17 +1150,17 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1186,91 +1177,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1278,20 +1269,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1299,14 +1290,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1316,14 +1307,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1333,14 +1324,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1350,14 +1341,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1367,18 +1358,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1388,35 +1379,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1426,14 +1417,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1443,39 +1434,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1487,7 +1478,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1528,7 +1519,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1539,7 +1530,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1571,7 +1562,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1582,7 +1573,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1627,7 +1618,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1638,7 +1629,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1671,46 +1662,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1730,7 +1721,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1739,13 +1730,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1760,7 +1751,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.21.xlsx
+++ b/reportes/I10.10.2.21.xlsx
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>TZIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDER </t>
-  </si>
-  <si>
-    <t>HUMBERTO</t>
-  </si>
-  <si>
-    <t>/201773393</t>
+    <t>LÓPEZ</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>MARITZA</t>
+  </si>
+  <si>
+    <t>/201774510</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,16 +70,16 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>30 AV. C 11-20 Z. 7</t>
-  </si>
-  <si>
-    <t>TIKAL I</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>5501-7610</t>
+    <t>ALDEA JOCOTIO</t>
+  </si>
+  <si>
+    <t>VILLA CANALES</t>
+  </si>
+  <si>
+    <t>3317-4659</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -100,16 +100,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1963-10-06</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>QUETZALTENANGO</t>
-  </si>
-  <si>
-    <t>Masculino</t>
+    <t>1993-09-23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>SANTA ROSA</t>
+  </si>
+  <si>
+    <t>Femenino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -124,16 +124,16 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
-    <t>DPI-1611081720901</t>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>AMA DE CASA</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>DPI-2300364060613</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -142,19 +142,16 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t>FLORI MONTENEGRO</t>
-  </si>
-  <si>
     <t>Nombre del Padre:</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>ANTONIO TZIC</t>
-  </si>
-  <si>
-    <t>GLORIA RODAS</t>
+    <t>DANIEL LÓPEZ</t>
+  </si>
+  <si>
+    <t>OFELIA ALVAREZ</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -166,10 +163,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>ESPOSA</t>
-  </si>
-  <si>
-    <t>5519-1399</t>
+    <t>JOSE BRAN</t>
+  </si>
+  <si>
+    <t>ESPOSO</t>
+  </si>
+  <si>
+    <t>5705-4764</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -196,13 +196,13 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>11:50:52</t>
-  </si>
-  <si>
-    <t>CL. DERMA</t>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>9:13:57</t>
+  </si>
+  <si>
+    <t>CL. 34</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
@@ -1183,24 +1183,24 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
     </row>
@@ -1307,14 +1307,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1324,14 +1324,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1341,14 +1341,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1358,18 +1358,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1379,7 +1379,7 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
@@ -1417,14 +1417,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
